--- a/scoresheets/clean/Step_1/Driven_Exercise.xlsx
+++ b/scoresheets/clean/Step_1/Driven_Exercise.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/ALSPAC/Data Cleaning and Analysis/data_cleaning/ALSPAC-scorekeep/scoresheets/clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7B55A-47FB-ED4F-ABD6-0567AC18326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B475A9-8B0D-9942-8BF9-5F28CF56D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{DB11A310-F7DD-7745-AD73-15D231571BDE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16080" xr2:uid="{DB11A310-F7DD-7745-AD73-15D231571BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">Sheet1!$A$92</definedName>
+    <definedName name="_GoBack" localSheetId="0">Sheet1!$A$96</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="295">
   <si>
     <t>ccq320</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Driven exercise at age 24 - exercise for weight loss frequently AND reports exercising when sick or injured or exercise interfereing with daily routine</t>
   </si>
   <si>
-    <t>Driven exercise at age 16 : exercise for weight requently and reports exercise interfereing with work or school OR feeling guilty when not able to exercise frequently</t>
-  </si>
-  <si>
     <t>Driven exercise at age 18 : exercise for weight loss  freqently and reports exercise interfereing with work or school OR feeling guilty when not able to exercise frequently</t>
   </si>
   <si>
@@ -882,7 +879,49 @@
     <t>exercise_wtloss.288 == 0 ~ 0, exercise_wtloss.288 &gt; 0 &amp; maladaptive_exercise_2.288 == 0 ~ 1, maladaptive_exercise_2.288 == 1 ~ 2</t>
   </si>
   <si>
-    <t>id, exercise_frq.167, exercise_weekly.167, exercise_interfere.167, exercise_interfere_present.167, exercise_wtloss.167, exercise_wtloss_present.167, exercise_wtloss_frequent.167, exercise_injury.167, exercise_injury_present.167, exercise_frq.198, exercise_weekly.198, exercise_interfere.198, exercise_interfere_present.198, exercise_wtloss.198, exercise_wtloss_present.198, exercise_wtloss_frequent.198, exercise_guilt.198, exercise_guilt_present.198, exercise_guilt_frequent.198, exercise_frq.216, exercise_weekly.216, exercise_interfere.216, exercise_interfere_present.216, exercise_wtloss.216, exercise_wtloss_present.216, exercise_wtloss_frequent.216, exercise_guilt.216, exercise_guilt_present.216, exercise_guilt_frequent.216, exercise_wtloss_raw.288, exercise_wtloss.288, exercise_wtloss_weekly.288, exercise_injury.288, exercise_injury_present.288, exercise_interfere.288, exercise_interfere_present.288, exercise_issues.167, exercise_issues.198, exercise_issues.216, exercise_issues.288, driven_exercise_broad.167, maladaptive_exercise.167, maladaptive_exercise.198, maladaptive_exercise.216, maladaptive_exercise.288, exercise_group.167, exercise_group.198, exercise_group.216, exercise_group.288, exercise_wtloss_h1.288, exercise_wtloss_h2.288, exercise_issues_gf.198, exercise_issues_gf.216, maladaptive_exercise_2.167, maladaptive_exercise_2.198, maladaptive_exercise_2.216, maladaptive_exercise_2.288, exercise_group_strict.167, exercise_group_strict.198, exercise_group_strict.216, exercise_group_strict.288</t>
+    <t>Driven exercise at age 16 : exercise for weight frequently and reports exercise interfereing with work or school OR feeling guilty when not able to exercise frequently</t>
+  </si>
+  <si>
+    <t>no exercise for weight loss = 0, exercise for weight loss = 1, maladaptive sometimes  = 2, maladaptive frequent = 3</t>
+  </si>
+  <si>
+    <t>exercise 4 group classification at 14</t>
+  </si>
+  <si>
+    <t>exercise 4 group classification at 16</t>
+  </si>
+  <si>
+    <t>exercise 4 group classification at 18</t>
+  </si>
+  <si>
+    <t>exercise 4 group classification at 24</t>
+  </si>
+  <si>
+    <t>exercise_4group.167</t>
+  </si>
+  <si>
+    <t>exercise_4group.198</t>
+  </si>
+  <si>
+    <t>exercise_4group.216</t>
+  </si>
+  <si>
+    <t>exercise_4group.288</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.167 == 0 ~ 0, exercise_wtloss.167 &gt; 0  &amp; maladaptive_exercise.167 == 0 ~ 0, maladaptive_exercise.167 ==1 &amp; maladaptive_exercise_2.167 == 0 ~ 2, maladaptive_exercise_2.167 ==1 ~3</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.198 == 0 ~ 0, exercise_wtloss.198 &gt; 0  &amp; maladaptive_exercise.198 == 0 ~ 0, maladaptive_exercise.198 ==1 &amp; maladaptive_exercise_2.198 == 0 ~ 2, maladaptive_exercise_2.198 ==1 ~3</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.216 == 0 ~ 0, exercise_wtloss.216 &gt; 0  &amp; maladaptive_exercise.216 == 0 ~ 0, maladaptive_exercise.216 ==1 &amp; maladaptive_exercise_2.216 == 0 ~ 2, maladaptive_exercise_2.216 ==1 ~3</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.288 == 0 ~ 0, exercise_wtloss.288 &gt; 0  &amp; maladaptive_exercise.288 == 0 ~ 0, maladaptive_exercise.288 ==1 &amp; maladaptive_exercise_2.288 == 0 ~ 2, maladaptive_exercise_2.288 ==1 ~3</t>
+  </si>
+  <si>
+    <t>id, exercise_frq.167, exercise_weekly.167, exercise_interfere.167, exercise_interfere_present.167, exercise_wtloss.167, exercise_wtloss_present.167, exercise_wtloss_frequent.167, exercise_injury.167, exercise_injury_present.167, exercise_frq.198, exercise_weekly.198, exercise_interfere.198, exercise_interfere_present.198, exercise_wtloss.198, exercise_wtloss_present.198, exercise_wtloss_frequent.198, exercise_guilt.198, exercise_guilt_present.198, exercise_guilt_frequent.198, exercise_frq.216, exercise_weekly.216, exercise_interfere.216, exercise_interfere_present.216, exercise_wtloss.216, exercise_wtloss_present.216, exercise_wtloss_frequent.216, exercise_guilt.216, exercise_guilt_present.216, exercise_guilt_frequent.216, exercise_wtloss_raw.288, exercise_wtloss.288, exercise_wtloss_weekly.288, exercise_injury.288, exercise_injury_present.288, exercise_interfere.288, exercise_interfere_present.288, exercise_issues.167, exercise_issues.198, exercise_issues.216, exercise_issues.288, driven_exercise_broad.167, maladaptive_exercise.167, maladaptive_exercise.198, maladaptive_exercise.216, maladaptive_exercise.288, exercise_group.167, exercise_group.198, exercise_group.216, exercise_group.288, exercise_wtloss_h1.288, exercise_wtloss_h2.288, exercise_issues_gf.198, exercise_issues_gf.216, maladaptive_exercise_2.167, maladaptive_exercise_2.198, maladaptive_exercise_2.216, maladaptive_exercise_2.288, exercise_group_strict.167, exercise_group_strict.198, exercise_group_strict.216, exercise_group_strict.288, exercise_4group.167, exercise_4group.198, exercise_4group.216, exercise_4group.288</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1209FB-7EF2-9A4C-A0BD-5CA3F108583E}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2465,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>79</v>
@@ -2500,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>104</v>
@@ -2535,7 +2574,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>82</v>
@@ -2570,7 +2609,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>93</v>
@@ -2605,7 +2644,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>84</v>
@@ -2640,7 +2679,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>85</v>
@@ -2675,7 +2714,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>87</v>
@@ -2710,7 +2749,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>92</v>
@@ -2745,7 +2784,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>133</v>
@@ -2780,7 +2819,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>98</v>
@@ -2815,7 +2854,7 @@
         <v>96</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>107</v>
@@ -2850,7 +2889,7 @@
         <v>57</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>99</v>
@@ -2885,7 +2924,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>100</v>
@@ -2920,7 +2959,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>101</v>
@@ -2955,7 +2994,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>102</v>
@@ -2990,7 +3029,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>103</v>
@@ -3025,7 +3064,7 @@
         <v>61</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>97</v>
@@ -3060,7 +3099,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>108</v>
@@ -3095,7 +3134,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>109</v>
@@ -3130,7 +3169,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>110</v>
@@ -3165,7 +3204,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>111</v>
@@ -3200,7 +3239,7 @@
         <v>62</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>112</v>
@@ -3235,7 +3274,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>113</v>
@@ -3270,7 +3309,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>114</v>
@@ -3305,7 +3344,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>115</v>
@@ -3340,7 +3379,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>116</v>
@@ -3375,7 +3414,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>117</v>
@@ -3410,7 +3449,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>118</v>
@@ -3445,7 +3484,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>119</v>
@@ -3480,7 +3519,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>121</v>
@@ -3515,7 +3554,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>155</v>
@@ -3550,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>155</v>
@@ -3585,7 +3624,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>155</v>
@@ -3620,7 +3659,7 @@
         <v>27</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>122</v>
@@ -3655,7 +3694,7 @@
         <v>29</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>129</v>
@@ -3690,7 +3729,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>130</v>
@@ -3725,7 +3764,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>128</v>
@@ -3760,7 +3799,7 @@
         <v>28</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>128</v>
@@ -3792,10 +3831,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>132</v>
@@ -3822,15 +3861,15 @@
         <v>1</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>140</v>
@@ -3857,15 +3896,15 @@
         <v>1</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>139</v>
@@ -3892,15 +3931,15 @@
         <v>1</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>141</v>
@@ -3927,15 +3966,15 @@
         <v>1</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>163</v>
@@ -3962,15 +4001,15 @@
         <v>1</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>164</v>
@@ -3997,15 +4036,15 @@
         <v>1</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>136</v>
@@ -4032,15 +4071,15 @@
         <v>1</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>169</v>
@@ -4067,15 +4106,15 @@
         <v>1</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>166</v>
@@ -4102,15 +4141,15 @@
         <v>1</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>167</v>
@@ -4137,15 +4176,15 @@
         <v>1</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>168</v>
@@ -4172,15 +4211,15 @@
         <v>1</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>170</v>
@@ -4207,18 +4246,18 @@
         <v>1</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>131</v>
@@ -4242,18 +4281,18 @@
         <v>1</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>131</v>
@@ -4277,15 +4316,15 @@
         <v>1</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>171</v>
@@ -4312,18 +4351,18 @@
         <v>1</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>131</v>
@@ -4347,18 +4386,18 @@
         <v>1</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>131</v>
@@ -4382,18 +4421,18 @@
         <v>1</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>131</v>
@@ -4417,18 +4456,18 @@
         <v>1</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>131</v>
@@ -4452,15 +4491,15 @@
         <v>1</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>138</v>
@@ -4487,15 +4526,15 @@
         <v>1</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>142</v>
@@ -4522,15 +4561,15 @@
         <v>1</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>143</v>
@@ -4557,15 +4596,15 @@
         <v>1</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>144</v>
@@ -4592,76 +4631,208 @@
         <v>1</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="13">
+        <v>6</v>
+      </c>
+      <c r="F92" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="12" t="s">
+      <c r="G92" s="13"/>
+      <c r="H92" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" s="13">
+        <v>6</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94" s="13">
+        <v>6</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="13">
+        <v>6</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E96" s="12">
         <v>7</v>
       </c>
-      <c r="F92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="20" t="s">
+      <c r="F96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E97" s="18">
         <v>7</v>
       </c>
-      <c r="F93" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G93" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H93" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I93" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J93" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K93" s="22" t="s">
+      <c r="F97" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J97" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K97" s="22" t="s">
         <v>156</v>
       </c>
     </row>

--- a/scoresheets/clean/Step_1/Driven_Exercise.xlsx
+++ b/scoresheets/clean/Step_1/Driven_Exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B475A9-8B0D-9942-8BF9-5F28CF56D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D15192B-A495-914E-B689-A322494FEAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16080" xr2:uid="{DB11A310-F7DD-7745-AD73-15D231571BDE}"/>
   </bookViews>
@@ -909,19 +909,19 @@
     <t>exercise_4group.288</t>
   </si>
   <si>
-    <t>exercise_wtloss.167 == 0 ~ 0, exercise_wtloss.167 &gt; 0  &amp; maladaptive_exercise.167 == 0 ~ 0, maladaptive_exercise.167 ==1 &amp; maladaptive_exercise_2.167 == 0 ~ 2, maladaptive_exercise_2.167 ==1 ~3</t>
-  </si>
-  <si>
-    <t>exercise_wtloss.198 == 0 ~ 0, exercise_wtloss.198 &gt; 0  &amp; maladaptive_exercise.198 == 0 ~ 0, maladaptive_exercise.198 ==1 &amp; maladaptive_exercise_2.198 == 0 ~ 2, maladaptive_exercise_2.198 ==1 ~3</t>
-  </si>
-  <si>
-    <t>exercise_wtloss.216 == 0 ~ 0, exercise_wtloss.216 &gt; 0  &amp; maladaptive_exercise.216 == 0 ~ 0, maladaptive_exercise.216 ==1 &amp; maladaptive_exercise_2.216 == 0 ~ 2, maladaptive_exercise_2.216 ==1 ~3</t>
-  </si>
-  <si>
-    <t>exercise_wtloss.288 == 0 ~ 0, exercise_wtloss.288 &gt; 0  &amp; maladaptive_exercise.288 == 0 ~ 0, maladaptive_exercise.288 ==1 &amp; maladaptive_exercise_2.288 == 0 ~ 2, maladaptive_exercise_2.288 ==1 ~3</t>
-  </si>
-  <si>
     <t>id, exercise_frq.167, exercise_weekly.167, exercise_interfere.167, exercise_interfere_present.167, exercise_wtloss.167, exercise_wtloss_present.167, exercise_wtloss_frequent.167, exercise_injury.167, exercise_injury_present.167, exercise_frq.198, exercise_weekly.198, exercise_interfere.198, exercise_interfere_present.198, exercise_wtloss.198, exercise_wtloss_present.198, exercise_wtloss_frequent.198, exercise_guilt.198, exercise_guilt_present.198, exercise_guilt_frequent.198, exercise_frq.216, exercise_weekly.216, exercise_interfere.216, exercise_interfere_present.216, exercise_wtloss.216, exercise_wtloss_present.216, exercise_wtloss_frequent.216, exercise_guilt.216, exercise_guilt_present.216, exercise_guilt_frequent.216, exercise_wtloss_raw.288, exercise_wtloss.288, exercise_wtloss_weekly.288, exercise_injury.288, exercise_injury_present.288, exercise_interfere.288, exercise_interfere_present.288, exercise_issues.167, exercise_issues.198, exercise_issues.216, exercise_issues.288, driven_exercise_broad.167, maladaptive_exercise.167, maladaptive_exercise.198, maladaptive_exercise.216, maladaptive_exercise.288, exercise_group.167, exercise_group.198, exercise_group.216, exercise_group.288, exercise_wtloss_h1.288, exercise_wtloss_h2.288, exercise_issues_gf.198, exercise_issues_gf.216, maladaptive_exercise_2.167, maladaptive_exercise_2.198, maladaptive_exercise_2.216, maladaptive_exercise_2.288, exercise_group_strict.167, exercise_group_strict.198, exercise_group_strict.216, exercise_group_strict.288, exercise_4group.167, exercise_4group.198, exercise_4group.216, exercise_4group.288</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.167 == 0 ~ 0, exercise_wtloss.167 &gt; 0  &amp; maladaptive_exercise.167 == 0 ~ 1, maladaptive_exercise.167 ==1 &amp; maladaptive_exercise_2.167 == 0 ~ 2, maladaptive_exercise_2.167 ==1 ~3</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.198 == 0 ~ 0, exercise_wtloss.198 &gt; 0  &amp; maladaptive_exercise.198 == 0 ~ 1, maladaptive_exercise.198 ==1 &amp; maladaptive_exercise_2.198 == 0 ~ 2, maladaptive_exercise_2.198 ==1 ~3</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.216 == 0 ~ 0, exercise_wtloss.216 &gt; 0  &amp; maladaptive_exercise.216 == 0 ~ 1, maladaptive_exercise.216 ==1 &amp; maladaptive_exercise_2.216 == 0 ~ 2, maladaptive_exercise_2.216 ==1 ~3</t>
+  </si>
+  <si>
+    <t>exercise_wtloss.288 == 0 ~ 0, exercise_wtloss.288 &gt; 0  &amp; maladaptive_exercise.288 == 0 ~ 1, maladaptive_exercise.288 ==1 &amp; maladaptive_exercise_2.288 == 0 ~ 2, maladaptive_exercise_2.288 ==1 ~3</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1209FB-7EF2-9A4C-A0BD-5CA3F108583E}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="D78" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -4763,12 +4763,12 @@
         <v>1</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>1</v>
